--- a/output.xlsx
+++ b/output.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\dadapy\GeneralBenders\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\dadapy\GeneralBenders\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84BF7002-7F80-42A4-87D2-A0BA4C2515CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A691FF5B-47AB-479C-B7FE-97AF8D94E7D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-8640" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cuts" sheetId="1" r:id="rId1"/>
@@ -163,18 +163,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6236,7 +6235,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>cuts!$F$1</c15:sqref>
@@ -6277,7 +6276,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>cuts!$K$2:$K$64</c15:sqref>
@@ -6481,7 +6480,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>cuts!$F$2:$F$65</c15:sqref>
@@ -6687,7 +6686,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="1"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-2A1D-4AA7-8198-313E2069C72B}"/>
                   </c:ext>
@@ -6700,7 +6699,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>cuts!$H$1</c15:sqref>
@@ -6741,7 +6740,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>cuts!$K$2:$K$64</c15:sqref>
@@ -6945,7 +6944,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>cuts!$H$2:$H$64</c15:sqref>
@@ -7148,7 +7147,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="1"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-2A1D-4AA7-8198-313E2069C72B}"/>
                   </c:ext>
@@ -7161,7 +7160,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>cuts!$J$1</c15:sqref>
@@ -7202,7 +7201,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>cuts!$K$2:$K$64</c15:sqref>
@@ -7406,7 +7405,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>cuts!$J$2:$J$64</c15:sqref>
@@ -7609,7 +7608,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="1"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-2A1D-4AA7-8198-313E2069C72B}"/>
                   </c:ext>
@@ -7622,7 +7621,7 @@
                 <c:order val="5"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>sbb!$D$1</c15:sqref>
@@ -7663,7 +7662,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>cuts!$K$2:$K$64</c15:sqref>
@@ -7867,7 +7866,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>sbb!$D$2:$D$64</c15:sqref>
@@ -8070,7 +8069,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="1"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-2A1D-4AA7-8198-313E2069C72B}"/>
                   </c:ext>
@@ -8083,7 +8082,7 @@
                 <c:order val="6"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>D_SDA!$G$1</c15:sqref>
@@ -8130,7 +8129,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>cuts!$K$2:$K$64</c15:sqref>
@@ -8334,7 +8333,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>D_SDA!$G$2:$G$64</c15:sqref>
@@ -8444,7 +8443,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="1"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-2A1D-4AA7-8198-313E2069C72B}"/>
                   </c:ext>
@@ -11505,7 +11504,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>338464</xdr:colOff>
+      <xdr:colOff>335289</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>151146</xdr:rowOff>
     </xdr:to>
@@ -12341,7 +12340,7 @@
   <dimension ref="A1:L65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="76" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12352,8 +12351,6 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4"/>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12389,35 +12386,35 @@
       <c r="B2" s="1">
         <v>4</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2">
         <v>19346.12480015543</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2">
         <v>7.4972224235534668</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2">
         <v>19346.12480015543</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2">
         <v>7.4768741130828857</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2">
         <v>19346.12480015543</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2">
         <v>19.556133508682251</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2">
         <v>19346.12480015543</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2">
         <v>7.4972224235534668</v>
       </c>
       <c r="K2">
         <f t="shared" ref="K2:K33" si="0">K1+1</f>
         <v>1</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L2">
         <f>((A2-13)^2+(B2-4)^2)^(1/2)</f>
         <v>0</v>
       </c>
@@ -12458,7 +12455,7 @@
         <v>2</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L2:L33" si="1">((A3-13)^2+(B3-4)^2)^(1/2)</f>
+        <f t="shared" ref="L3:L33" si="1">((A3-13)^2+(B3-4)^2)^(1/2)</f>
         <v>1</v>
       </c>
     </row>
@@ -19372,8 +19369,6 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4"/>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -19406,32 +19401,32 @@
       <c r="B2" s="1">
         <v>4</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2">
         <v>19346.12480015543</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2">
         <v>7.7104308605194092</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2">
         <v>19346.12480015543</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2">
         <v>7.4365112781524658</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2">
         <v>19346.12480015543</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2">
         <v>19.46341180801392</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2">
         <v>19346.12480015543</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2">
         <v>7.7104308605194092</v>
       </c>
       <c r="K2">
-        <f>((A2-13)^2+(B2-4)^2)^(1/2)</f>
+        <f t="shared" ref="K2:K33" si="0">((A2-13)^2+(B2-4)^2)^(1/2)</f>
         <v>0</v>
       </c>
     </row>
@@ -19467,7 +19462,7 @@
         <v>10.17334413528442</v>
       </c>
       <c r="K3">
-        <f>((A3-13)^2+(B3-4)^2)^(1/2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -19503,7 +19498,7 @@
         <v>9.6331419944763184</v>
       </c>
       <c r="K4">
-        <f>((A4-13)^2+(B4-4)^2)^(1/2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -19539,7 +19534,7 @@
         <v>10.76158690452576</v>
       </c>
       <c r="K5">
-        <f>((A5-13)^2+(B5-4)^2)^(1/2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -19575,7 +19570,7 @@
         <v>15.072687387466431</v>
       </c>
       <c r="K6">
-        <f>((A6-13)^2+(B6-4)^2)^(1/2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -19611,7 +19606,7 @@
         <v>11.256139993667601</v>
       </c>
       <c r="K7">
-        <f>((A7-13)^2+(B7-4)^2)^(1/2)</f>
+        <f t="shared" si="0"/>
         <v>1.4142135623730951</v>
       </c>
     </row>
@@ -19647,7 +19642,7 @@
         <v>11.417978286743161</v>
       </c>
       <c r="K8">
-        <f>((A8-13)^2+(B8-4)^2)^(1/2)</f>
+        <f t="shared" si="0"/>
         <v>1.4142135623730951</v>
       </c>
     </row>
@@ -19683,7 +19678,7 @@
         <v>14.54225492477417</v>
       </c>
       <c r="K9">
-        <f>((A9-13)^2+(B9-4)^2)^(1/2)</f>
+        <f t="shared" si="0"/>
         <v>1.4142135623730951</v>
       </c>
     </row>
@@ -19719,7 +19714,7 @@
         <v>12.35311985015869</v>
       </c>
       <c r="K10">
-        <f>((A10-13)^2+(B10-4)^2)^(1/2)</f>
+        <f t="shared" si="0"/>
         <v>1.4142135623730951</v>
       </c>
     </row>
@@ -19755,7 +19750,7 @@
         <v>12.509131193161011</v>
       </c>
       <c r="K11">
-        <f>((A11-13)^2+(B11-4)^2)^(1/2)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -19791,7 +19786,7 @@
         <v>17.058773994445801</v>
       </c>
       <c r="K12">
-        <f>((A12-13)^2+(B12-4)^2)^(1/2)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -19827,7 +19822,7 @@
         <v>11.16684675216675</v>
       </c>
       <c r="K13">
-        <f>((A13-13)^2+(B13-4)^2)^(1/2)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -19863,7 +19858,7 @@
         <v>16.650266647338871</v>
       </c>
       <c r="K14">
-        <f>((A14-13)^2+(B14-4)^2)^(1/2)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -19899,7 +19894,7 @@
         <v>11.793465614318849</v>
       </c>
       <c r="K15">
-        <f>((A15-13)^2+(B15-4)^2)^(1/2)</f>
+        <f t="shared" si="0"/>
         <v>2.2360679774997898</v>
       </c>
     </row>
@@ -19935,7 +19930,7 @@
         <v>12.217180490493771</v>
       </c>
       <c r="K16">
-        <f>((A16-13)^2+(B16-4)^2)^(1/2)</f>
+        <f t="shared" si="0"/>
         <v>2.2360679774997898</v>
       </c>
     </row>
@@ -19971,7 +19966,7 @@
         <v>17.14900016784668</v>
       </c>
       <c r="K17">
-        <f>((A17-13)^2+(B17-4)^2)^(1/2)</f>
+        <f t="shared" si="0"/>
         <v>2.2360679774997898</v>
       </c>
     </row>
@@ -20007,7 +20002,7 @@
         <v>11.76113796234131</v>
       </c>
       <c r="K18">
-        <f>((A18-13)^2+(B18-4)^2)^(1/2)</f>
+        <f t="shared" si="0"/>
         <v>2.2360679774997898</v>
       </c>
     </row>
@@ -20043,7 +20038,7 @@
         <v>19.26473164558411</v>
       </c>
       <c r="K19">
-        <f>((A19-13)^2+(B19-4)^2)^(1/2)</f>
+        <f t="shared" si="0"/>
         <v>2.2360679774997898</v>
       </c>
     </row>
@@ -20079,7 +20074,7 @@
         <v>13.937764644622799</v>
       </c>
       <c r="K20">
-        <f>((A20-13)^2+(B20-4)^2)^(1/2)</f>
+        <f t="shared" si="0"/>
         <v>2.2360679774997898</v>
       </c>
     </row>
@@ -20115,7 +20110,7 @@
         <v>16.716167688369751</v>
       </c>
       <c r="K21">
-        <f>((A21-13)^2+(B21-4)^2)^(1/2)</f>
+        <f t="shared" si="0"/>
         <v>2.2360679774997898</v>
       </c>
     </row>
@@ -20151,7 +20146,7 @@
         <v>15.728187799453741</v>
       </c>
       <c r="K22">
-        <f>((A22-13)^2+(B22-4)^2)^(1/2)</f>
+        <f t="shared" si="0"/>
         <v>2.2360679774997898</v>
       </c>
     </row>
@@ -20187,7 +20182,7 @@
         <v>16.358890056610111</v>
       </c>
       <c r="K23">
-        <f>((A23-13)^2+(B23-4)^2)^(1/2)</f>
+        <f t="shared" si="0"/>
         <v>2.8284271247461903</v>
       </c>
     </row>
@@ -20223,7 +20218,7 @@
         <v>12.47873377799988</v>
       </c>
       <c r="K24">
-        <f>((A24-13)^2+(B24-4)^2)^(1/2)</f>
+        <f t="shared" si="0"/>
         <v>2.8284271247461903</v>
       </c>
     </row>
@@ -20259,7 +20254,7 @@
         <v>18.213341951370239</v>
       </c>
       <c r="K25">
-        <f>((A25-13)^2+(B25-4)^2)^(1/2)</f>
+        <f t="shared" si="0"/>
         <v>2.8284271247461903</v>
       </c>
     </row>
@@ -20295,7 +20290,7 @@
         <v>15.48767447471619</v>
       </c>
       <c r="K26">
-        <f>((A26-13)^2+(B26-4)^2)^(1/2)</f>
+        <f t="shared" si="0"/>
         <v>2.8284271247461903</v>
       </c>
     </row>
@@ -20331,7 +20326,7 @@
         <v>16.063173294067379</v>
       </c>
       <c r="K27">
-        <f>((A27-13)^2+(B27-4)^2)^(1/2)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -20367,7 +20362,7 @@
         <v>19.149119853973389</v>
       </c>
       <c r="K28">
-        <f>((A28-13)^2+(B28-4)^2)^(1/2)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -20403,7 +20398,7 @@
         <v>13.608751535415649</v>
       </c>
       <c r="K29">
-        <f>((A29-13)^2+(B29-4)^2)^(1/2)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -20439,7 +20434,7 @@
         <v>15.74415063858032</v>
       </c>
       <c r="K30">
-        <f>((A30-13)^2+(B30-4)^2)^(1/2)</f>
+        <f t="shared" si="0"/>
         <v>3.1622776601683795</v>
       </c>
     </row>
@@ -20475,7 +20470,7 @@
         <v>19.843661069869999</v>
       </c>
       <c r="K31">
-        <f>((A31-13)^2+(B31-4)^2)^(1/2)</f>
+        <f t="shared" si="0"/>
         <v>3.1622776601683795</v>
       </c>
     </row>
@@ -20511,7 +20506,7 @@
         <v>17.906956434249881</v>
       </c>
       <c r="K32">
-        <f>((A32-13)^2+(B32-4)^2)^(1/2)</f>
+        <f t="shared" si="0"/>
         <v>3.1622776601683795</v>
       </c>
     </row>
@@ -20547,7 +20542,7 @@
         <v>20.536944150924679</v>
       </c>
       <c r="K33">
-        <f>((A33-13)^2+(B33-4)^2)^(1/2)</f>
+        <f t="shared" si="0"/>
         <v>3.1622776601683795</v>
       </c>
     </row>
@@ -20583,7 +20578,7 @@
         <v>21.734477758407589</v>
       </c>
       <c r="K34">
-        <f>((A34-13)^2+(B34-4)^2)^(1/2)</f>
+        <f t="shared" ref="K34:K64" si="1">((A34-13)^2+(B34-4)^2)^(1/2)</f>
         <v>3.1622776601683795</v>
       </c>
     </row>
@@ -20619,7 +20614,7 @@
         <v>22.36832165718079</v>
       </c>
       <c r="K35">
-        <f>((A35-13)^2+(B35-4)^2)^(1/2)</f>
+        <f t="shared" si="1"/>
         <v>3.1622776601683795</v>
       </c>
     </row>
@@ -20655,7 +20650,7 @@
         <v>15.25855183601379</v>
       </c>
       <c r="K36">
-        <f>((A36-13)^2+(B36-4)^2)^(1/2)</f>
+        <f t="shared" si="1"/>
         <v>3.6055512754639891</v>
       </c>
     </row>
@@ -20691,7 +20686,7 @@
         <v>18.340741395950321</v>
       </c>
       <c r="K37">
-        <f>((A37-13)^2+(B37-4)^2)^(1/2)</f>
+        <f t="shared" si="1"/>
         <v>3.6055512754639891</v>
       </c>
     </row>
@@ -20727,7 +20722,7 @@
         <v>22.159447431564331</v>
       </c>
       <c r="K38">
-        <f>((A38-13)^2+(B38-4)^2)^(1/2)</f>
+        <f t="shared" si="1"/>
         <v>3.6055512754639891</v>
       </c>
     </row>
@@ -20763,7 +20758,7 @@
         <v>19.298296928405762</v>
       </c>
       <c r="K39">
-        <f>((A39-13)^2+(B39-4)^2)^(1/2)</f>
+        <f t="shared" si="1"/>
         <v>3.6055512754639891</v>
       </c>
     </row>
@@ -20799,7 +20794,7 @@
         <v>19.487537860870361</v>
       </c>
       <c r="K40">
-        <f>((A40-13)^2+(B40-4)^2)^(1/2)</f>
+        <f t="shared" si="1"/>
         <v>3.6055512754639891</v>
       </c>
     </row>
@@ -20835,7 +20830,7 @@
         <v>15.771681070327761</v>
       </c>
       <c r="K41">
-        <f>((A41-13)^2+(B41-4)^2)^(1/2)</f>
+        <f t="shared" si="1"/>
         <v>3.6055512754639891</v>
       </c>
     </row>
@@ -20871,7 +20866,7 @@
         <v>21.831623077392582</v>
       </c>
       <c r="K42">
-        <f>((A42-13)^2+(B42-4)^2)^(1/2)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -20907,7 +20902,7 @@
         <v>14.780861139297491</v>
       </c>
       <c r="K43">
-        <f>((A43-13)^2+(B43-4)^2)^(1/2)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -20943,7 +20938,7 @@
         <v>20.81625866889954</v>
       </c>
       <c r="K44">
-        <f>((A44-13)^2+(B44-4)^2)^(1/2)</f>
+        <f t="shared" si="1"/>
         <v>4.1231056256176606</v>
       </c>
     </row>
@@ -20979,7 +20974,7 @@
         <v>20.528482437133789</v>
       </c>
       <c r="K45">
-        <f>((A45-13)^2+(B45-4)^2)^(1/2)</f>
+        <f t="shared" si="1"/>
         <v>4.1231056256176606</v>
       </c>
     </row>
@@ -21015,7 +21010,7 @@
         <v>20.01967811584473</v>
       </c>
       <c r="K46">
-        <f>((A46-13)^2+(B46-4)^2)^(1/2)</f>
+        <f t="shared" si="1"/>
         <v>4.1231056256176606</v>
       </c>
     </row>
@@ -21051,7 +21046,7 @@
         <v>21.759910345077511</v>
       </c>
       <c r="K47">
-        <f>((A47-13)^2+(B47-4)^2)^(1/2)</f>
+        <f t="shared" si="1"/>
         <v>4.1231056256176606</v>
       </c>
     </row>
@@ -21087,7 +21082,7 @@
         <v>16.358933210372921</v>
       </c>
       <c r="K48">
-        <f>((A48-13)^2+(B48-4)^2)^(1/2)</f>
+        <f t="shared" si="1"/>
         <v>4.2426406871192848</v>
       </c>
     </row>
@@ -21123,7 +21118,7 @@
         <v>22.695633888244629</v>
       </c>
       <c r="K49">
-        <f>((A49-13)^2+(B49-4)^2)^(1/2)</f>
+        <f t="shared" si="1"/>
         <v>4.2426406871192848</v>
       </c>
     </row>
@@ -21159,7 +21154,7 @@
         <v>38.057446718215942</v>
       </c>
       <c r="K50">
-        <f>((A50-13)^2+(B50-4)^2)^(1/2)</f>
+        <f t="shared" si="1"/>
         <v>4.4721359549995796</v>
       </c>
     </row>
@@ -21195,7 +21190,7 @@
         <v>19.315429925918579</v>
       </c>
       <c r="K51">
-        <f>((A51-13)^2+(B51-4)^2)^(1/2)</f>
+        <f t="shared" si="1"/>
         <v>4.4721359549995796</v>
       </c>
     </row>
@@ -21231,7 +21226,7 @@
         <v>19.850192070007321</v>
       </c>
       <c r="K52">
-        <f>((A52-13)^2+(B52-4)^2)^(1/2)</f>
+        <f t="shared" si="1"/>
         <v>4.4721359549995796</v>
       </c>
     </row>
@@ -21267,7 +21262,7 @@
         <v>23.87567496299744</v>
       </c>
       <c r="K53">
-        <f>((A53-13)^2+(B53-4)^2)^(1/2)</f>
+        <f t="shared" si="1"/>
         <v>4.4721359549995796</v>
       </c>
     </row>
@@ -21303,7 +21298,7 @@
         <v>18.250859260559078</v>
       </c>
       <c r="K54">
-        <f>((A54-13)^2+(B54-4)^2)^(1/2)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -21339,7 +21334,7 @@
         <v>19.858461856842041</v>
       </c>
       <c r="K55">
-        <f>((A55-13)^2+(B55-4)^2)^(1/2)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -21375,7 +21370,7 @@
         <v>23.915306329727169</v>
       </c>
       <c r="K56">
-        <f>((A56-13)^2+(B56-4)^2)^(1/2)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -21411,7 +21406,7 @@
         <v>20.52444863319397</v>
       </c>
       <c r="K57">
-        <f>((A57-13)^2+(B57-4)^2)^(1/2)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -21447,7 +21442,7 @@
         <v>19.71584248542786</v>
       </c>
       <c r="K58">
-        <f>((A58-13)^2+(B58-4)^2)^(1/2)</f>
+        <f t="shared" si="1"/>
         <v>5.0990195135927845</v>
       </c>
     </row>
@@ -21483,7 +21478,7 @@
         <v>28.44402647018433</v>
       </c>
       <c r="K59">
-        <f>((A59-13)^2+(B59-4)^2)^(1/2)</f>
+        <f t="shared" si="1"/>
         <v>5.0990195135927845</v>
       </c>
     </row>
@@ -21519,7 +21514,7 @@
         <v>20.483809471130371</v>
       </c>
       <c r="K60">
-        <f>((A60-13)^2+(B60-4)^2)^(1/2)</f>
+        <f t="shared" si="1"/>
         <v>5.3851648071345037</v>
       </c>
     </row>
@@ -21555,7 +21550,7 @@
         <v>26.231344938278198</v>
       </c>
       <c r="K61">
-        <f>((A61-13)^2+(B61-4)^2)^(1/2)</f>
+        <f t="shared" si="1"/>
         <v>5.3851648071345037</v>
       </c>
     </row>
@@ -21591,7 +21586,7 @@
         <v>19.586207628250119</v>
       </c>
       <c r="K62">
-        <f>((A62-13)^2+(B62-4)^2)^(1/2)</f>
+        <f t="shared" si="1"/>
         <v>5.6568542494923806</v>
       </c>
     </row>
@@ -21627,7 +21622,7 @@
         <v>20.09454345703125</v>
       </c>
       <c r="K63">
-        <f>((A63-13)^2+(B63-4)^2)^(1/2)</f>
+        <f t="shared" si="1"/>
         <v>5.8309518948453007</v>
       </c>
     </row>
@@ -21663,7 +21658,7 @@
         <v>19.89868950843811</v>
       </c>
       <c r="K64">
-        <f>((A64-13)^2+(B64-4)^2)^(1/2)</f>
+        <f t="shared" si="1"/>
         <v>6.4031242374328485</v>
       </c>
     </row>
